--- a/biology/Zoologie/Acanthomeridion/Acanthomeridion.xlsx
+++ b/biology/Zoologie/Acanthomeridion/Acanthomeridion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthomeridion est un genre éteint d'arthropodes du Cambrien, découvert dans les schistes de Maotianshan en Chine[1]. En 1997 il a été placé dans un taxon monotypique propre, la famille des Acanthomeridiidae[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthomeridion est un genre éteint d'arthropodes du Cambrien, découvert dans les schistes de Maotianshan en Chine. En 1997 il a été placé dans un taxon monotypique propre, la famille des Acanthomeridiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est connu par huit spécimens tous trouvés en Chine[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est connu par huit spécimens tous trouvés en Chine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthomeridion était un animal de 35 millimètres de long avec onze segments se terminant en épines à l'arrière. Une caractéristique de la tête est sa suture faciale séparant les joues de la tête, ce qui est analogue à ce qui se voit chez les trilobites. D'autres ressemblances sont peu claires[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthomeridion était un animal de 35 millimètres de long avec onze segments se terminant en épines à l'arrière. Une caractéristique de la tête est sa suture faciale séparant les joues de la tête, ce qui est analogue à ce qui se voit chez les trilobites. D'autres ressemblances sont peu claires.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 juin 2020)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 juin 2020) :
 Acanthomeridion anacanthus Hou &amp; al., 2016 †
 Acanthomeridion serratum Hou, Chen &amp; Lu, 1989 †</t>
         </is>
